--- a/output/plannet-PlanNet-Endpoint.xlsx
+++ b/output/plannet-PlanNet-Endpoint.xlsx
@@ -143,7 +143,7 @@
     <t>plannet-PlanNet-Endpoint</t>
   </si>
   <si>
-    <t>PlanNet-Endpoint</t>
+    <t>An endpoint describes the technical details of a location that can be connected to for the delivery/retrieval of information.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -330,7 +330,7 @@
 </t>
   </si>
   <si>
-    <t>UseCase</t>
+    <t>UseCase is an enumeration of the specific use cases (service descriptions) supported by the endpoint</t>
   </si>
   <si>
     <t>Endpoint.modifierExtension</t>
